--- a/public/sphreadsheets/excel/create_user_bulk_template.xlsx
+++ b/public/sphreadsheets/excel/create_user_bulk_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\F.LIE\MyProject\BackEndProject\general-pos-be\public\sphreadsheets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F010E90-2975-4A50-A48F-42E00266B4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D25354-1380-47E4-B278-BF31ED702A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94F081CA-A2B0-44AC-A00A-1917247D42FC}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>ploy123</t>
   </si>
   <si>
-    <t>Daftar Akun</t>
-  </si>
-  <si>
     <t>Jenis Kelamin (pria / wanita) (Wajib)</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>Tipe Akun (admin/member) (Wajib)</t>
+  </si>
+  <si>
+    <t>Daftar Akun Pengguna</t>
   </si>
 </sst>
 </file>
@@ -198,13 +198,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -523,7 +524,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,17 +539,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -561,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -573,139 +574,144 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>85250621375</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>85250621376</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>85250621377</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>85250621378</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>85250621379</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
     </row>

--- a/public/sphreadsheets/excel/create_user_bulk_template.xlsx
+++ b/public/sphreadsheets/excel/create_user_bulk_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\F.LIE\MyProject\BackEndProject\general-pos-be\public\sphreadsheets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D25354-1380-47E4-B278-BF31ED702A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639428E1-083B-4A5E-B1AF-533F4C2BF492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94F081CA-A2B0-44AC-A00A-1917247D42FC}"/>
   </bookViews>
@@ -36,21 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Nama Lengkap (Wajib)</t>
-  </si>
-  <si>
-    <t>Nomor HP (Wajib)</t>
-  </si>
-  <si>
-    <t>Username (Wajib)</t>
-  </si>
-  <si>
-    <t>Password (Wajib)</t>
-  </si>
-  <si>
     <t>Azizi Asadel</t>
   </si>
   <si>
@@ -111,12 +96,6 @@
     <t>ploy123</t>
   </si>
   <si>
-    <t>Jenis Kelamin (pria / wanita) (Wajib)</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>member</t>
   </si>
   <si>
@@ -126,13 +105,34 @@
     <t>wanita</t>
   </si>
   <si>
-    <t>Url Gambar</t>
-  </si>
-  <si>
-    <t>Tipe Akun (admin/member) (Wajib)</t>
-  </si>
-  <si>
-    <t>Daftar Akun Pengguna</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phonenumber</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>imageUrl</t>
+  </si>
+  <si>
+    <t>no.</t>
+  </si>
+  <si>
+    <t>Daftar Pengguna</t>
   </si>
 </sst>
 </file>
@@ -201,11 +201,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,180 +539,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
         <v>85250621375</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>85250621376</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
-        <v>13</v>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>85250621377</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="3">
-        <v>85250621377</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
         <v>85250621378</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4" t="s">
-        <v>9</v>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
         <v>85250621379</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4" t="s">
-        <v>11</v>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
